--- a/data/trans_orig/P14B33-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1841298D-1E3B-402B-8679-86A9B1A10A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDACAF0-1547-49E9-AA79-1A562544734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EA0EBE6-F2F8-4385-91E7-5EF3930C049F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C36650-E8E8-4D09-9561-A1F37BDCEFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>32,85%</t>
   </si>
   <si>
-    <t>82,55%</t>
+    <t>83,39%</t>
   </si>
   <si>
     <t>32,77%</t>
@@ -147,7 +147,7 @@
     <t>67,15%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>16,61%</t>
   </si>
   <si>
     <t>38,46%</t>
@@ -159,16 +159,16 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -180,16 +180,16 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554088-B8EA-4FB9-9144-8E0168EF3B2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8856FB-3081-4A7D-B767-A4DECC177F9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FD7029-93C3-403D-922D-5B9DC39CA7CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C40B8E-CFCA-4AB6-A6DC-B4DB85A75634}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B33-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FDACAF0-1547-49E9-AA79-1A562544734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A042F6D-53E9-46D6-9BA1-6D9EBCB0AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D1C36650-E8E8-4D09-9561-A1F37BDCEFE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB581985-AD57-4C79-89D4-B87AF74C2750}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -105,10 +105,10 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>51,24%</t>
@@ -135,7 +135,7 @@
     <t>32,85%</t>
   </si>
   <si>
-    <t>83,39%</t>
+    <t>82,56%</t>
   </si>
   <si>
     <t>32,77%</t>
@@ -147,7 +147,7 @@
     <t>67,15%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>17,44%</t>
   </si>
   <si>
     <t>38,46%</t>
@@ -159,7 +159,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>22,49%</t>
@@ -168,7 +168,7 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>52,42%</t>
+    <t>53,44%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -180,13 +180,13 @@
     <t>86,72%</t>
   </si>
   <si>
-    <t>44,65%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>47,58%</t>
+    <t>46,56%</t>
   </si>
   <si>
     <t>93,15%</t>
@@ -195,7 +195,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya esterilidad le limita en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población cuya esterilidad le limita en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>45,97%</t>
@@ -216,7 +216,7 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>68,27%</t>
@@ -225,7 +225,7 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>22,22%</t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8856FB-3081-4A7D-B767-A4DECC177F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15DBC68-8B7E-4B98-8E0E-AE92129855BB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C40B8E-CFCA-4AB6-A6DC-B4DB85A75634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504E5BD2-8763-4F49-9BB9-69A283792F02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
